--- a/03 Noise Fundamentals/Data/RawData.xlsx
+++ b/03 Noise Fundamentals/Data/RawData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor Crap" sheetId="1" r:id="rId1"/>
@@ -588,22 +588,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.3409363672346441E-17</c:v>
+                    <c:v>1.3424776986491396E-17</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2823842318169226E-17</c:v>
+                    <c:v>1.2841422628252552E-17</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0680041190710575E-17</c:v>
+                    <c:v>1.0709222400463374E-17</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8516851733711899E-16</c:v>
+                    <c:v>1.8517546185099387E-16</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.2396862455155771E-17</c:v>
+                    <c:v>2.2878622514094208E-17</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.1793217296554925E-16</c:v>
+                    <c:v>1.1857114611502697E-16</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -615,22 +615,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1.3409363672346441E-17</c:v>
+                    <c:v>1.3424776986491396E-17</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2823842318169226E-17</c:v>
+                    <c:v>1.2841422628252552E-17</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0680041190710575E-17</c:v>
+                    <c:v>1.0709222400463374E-17</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.8516851733711899E-16</c:v>
+                    <c:v>1.8517546185099387E-16</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.2396862455155771E-17</c:v>
+                    <c:v>2.2878622514094208E-17</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.1793217296554925E-16</c:v>
+                    <c:v>1.1857114611502697E-16</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -683,22 +683,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.9366505738214445E-19</c:v>
+                  <c:v>6.4312647566493747E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.230315631203673E-18</c:v>
+                  <c:v>6.7249298140315265E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6738908270782677E-17</c:v>
+                  <c:v>8.0757890779894271E-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6885740799473751E-16</c:v>
+                  <c:v>2.3287639050384912E-16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.67154150661921E-15</c:v>
+                  <c:v>1.7355604891283218E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1770682829991425E-14</c:v>
+                  <c:v>1.1834701812500535E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8086,8 +8086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y86"/>
   <sheetViews>
-    <sheetView topLeftCell="E59" zoomScale="86" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -8655,8 +8655,8 @@
         <v>1051</v>
       </c>
       <c r="D51">
-        <f>$H$39*E39-$I$39</f>
-        <v>0</v>
+        <f>$H$39*(E39-$I$39)</f>
+        <v>6.7283950617076283E-14</v>
       </c>
       <c r="E51">
         <f>C39</f>
@@ -8668,27 +8668,27 @@
       </c>
       <c r="G51">
         <f t="shared" ref="G51:G57" si="3">D51/$C$51</f>
-        <v>0</v>
+        <v>6.4018982509111591E-17</v>
       </c>
       <c r="H51">
-        <f>($H$39)*F39/E39</f>
-        <v>1.415788877562578E-14</v>
+        <f>($H$39)*(F39/E39)</f>
+        <v>1.4157888775625779E-14</v>
       </c>
       <c r="I51">
         <f>G51*SQRT( (F51/E51)^2 + ($B$51/$C$51)^2)</f>
-        <v>0</v>
+        <v>2.6395702692963664E-18</v>
       </c>
       <c r="J51">
         <f>AVERAGE(I51:I57)</f>
-        <v>5.1772971419864324E-17</v>
+        <v>5.2320031823516958E-17</v>
       </c>
       <c r="L51" s="4">
         <f>1.18E-20/(4*J37)</f>
         <v>1.0028180887986918E-23</v>
       </c>
-      <c r="M51" s="3" t="e">
+      <c r="M51" s="3">
         <f t="shared" ref="M51:M57" si="4">(I51/G51)^2</f>
-        <v>#DIV/0!</v>
+        <v>1.7000000000000003E-3</v>
       </c>
       <c r="N51">
         <f>(F51/E51)^2</f>
@@ -8698,43 +8698,43 @@
         <f>(1/$J$37)^2</f>
         <v>1.1555807172902738E-5</v>
       </c>
-      <c r="P51" s="9" t="e">
+      <c r="P51" s="9">
         <f>0.25*$L$51*SQRT(M51+N51+O51)</f>
-        <v>#DIV/0!</v>
+        <v>1.4427072257908119E-25</v>
       </c>
       <c r="Q51" s="3">
         <f xml:space="preserve"> AVERAGE(P52:P57)</f>
-        <v>2.1498953592743183E-23</v>
+        <v>5.9586366229202817E-25</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.5">
       <c r="D52">
-        <f>$H$39*E40-$I$39</f>
-        <v>3.086419753086338E-16</v>
+        <f t="shared" ref="D52:D57" si="5">$H$39*(E40-$I$39)</f>
+        <v>6.7592592592384929E-14</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52:E57" si="5">C40</f>
+        <f t="shared" ref="E52:E57" si="6">C40</f>
         <v>10</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52:F57" si="6" xml:space="preserve"> 0.04*E52</f>
+        <f t="shared" ref="F52:F57" si="7" xml:space="preserve"> 0.04*E52</f>
         <v>0.4</v>
       </c>
       <c r="G52">
         <f>D52/$C$51</f>
-        <v>2.9366505738214445E-19</v>
+        <v>6.4312647566493747E-17</v>
       </c>
       <c r="H52">
-        <f>($H$39)*F40/E40</f>
+        <f t="shared" ref="H52:H57" si="8">($H$39)*(F40/E40)</f>
         <v>1.409324088167315E-14</v>
       </c>
       <c r="I52">
         <f>G52*SQRT( (H52/D52)^2 + ($B$51/$C$51)^2)</f>
-        <v>1.3409363672346441E-17</v>
+        <v>1.3424776986491396E-17</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="4"/>
-        <v>2085.0275181106585</v>
+        <f>(I52/G52)^2</f>
+        <v>4.357339334299451E-2</v>
       </c>
       <c r="N52">
         <f>(F52/E52)^2</f>
@@ -8745,38 +8745,38 @@
         <v>1.1555807172902738E-5</v>
       </c>
       <c r="P52" s="9">
-        <f t="shared" ref="P52:P57" si="7">0.25*$L$51*SQRT(M52+N52+O52)</f>
-        <v>1.1447699776197826E-22</v>
+        <f t="shared" ref="P52:P57" si="9">0.25*$L$51*SQRT(M52+N52+O52)</f>
+        <v>5.3291637706002171E-25</v>
       </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.5">
       <c r="D53">
-        <f t="shared" ref="D53:D57" si="8">$H$39*E41-$I$39</f>
-        <v>3.3950617283950602E-15</v>
+        <f t="shared" si="5"/>
+        <v>7.0679012345471343E-14</v>
       </c>
       <c r="E53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
-        <v>3.230315631203673E-18</v>
+        <v>6.7249298140315265E-17</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53:H57" si="9">($H$39)*F41/E41</f>
-        <v>1.3477815515661223E-14</v>
+        <f t="shared" si="8"/>
+        <v>1.3477815515661221E-14</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53:I57" si="10">G53*SQRT( (H53/D53)^2 + ($B$51/$C$51)^2)</f>
-        <v>1.2823842318169226E-17</v>
+        <v>1.2841422628252552E-17</v>
       </c>
       <c r="M53" s="3">
         <f t="shared" si="4"/>
-        <v>15.759644650020713</v>
+        <v>3.6462863077815266E-2</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53:N56" si="11">(F53/E53)^2</f>
@@ -8787,38 +8787,38 @@
         <v>1.1555807172902738E-5</v>
       </c>
       <c r="P53" s="9">
-        <f t="shared" si="7"/>
-        <v>9.9530820022430341E-24</v>
+        <f t="shared" si="9"/>
+        <v>4.891913955988885E-25</v>
       </c>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.5">
       <c r="D54">
-        <f t="shared" si="8"/>
-        <v>1.7592592592592594E-14</v>
+        <f t="shared" si="5"/>
+        <v>8.4876543209668877E-14</v>
       </c>
       <c r="E54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
-        <v>1.6738908270782677E-17</v>
+        <v>8.0757890779894271E-17</v>
       </c>
       <c r="H54">
-        <f t="shared" si="9"/>
-        <v>1.1223344556677891E-14</v>
+        <f t="shared" si="8"/>
+        <v>1.122334455667789E-14</v>
       </c>
       <c r="I54">
         <f t="shared" si="10"/>
-        <v>1.0680041190710575E-17</v>
+        <v>1.0709222400463374E-17</v>
       </c>
       <c r="M54" s="3">
         <f t="shared" si="4"/>
-        <v>0.4070910894388356</v>
+        <v>1.7585144457431371E-2</v>
       </c>
       <c r="N54">
         <f t="shared" si="11"/>
@@ -8829,38 +8829,38 @@
         <v>1.1555807172902738E-5</v>
       </c>
       <c r="P54" s="9">
-        <f t="shared" si="7"/>
-        <v>1.6027503932733625E-24</v>
+        <f t="shared" si="9"/>
+        <v>3.4735652370406865E-25</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.5">
       <c r="D55">
-        <f t="shared" si="8"/>
-        <v>1.7746913580246913E-13</v>
+        <f t="shared" si="5"/>
+        <v>2.4475308641954542E-13</v>
       </c>
       <c r="E55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="F55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="G55">
         <f t="shared" si="3"/>
-        <v>1.6885740799473751E-16</v>
+        <v>2.3287639050384912E-16</v>
       </c>
       <c r="H55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.9460401974063176E-13</v>
       </c>
       <c r="I55">
         <f t="shared" si="10"/>
-        <v>1.8516851733711899E-16</v>
+        <v>1.8517546185099387E-16</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" si="4"/>
-        <v>1.2025248544512059</v>
+        <v>0.63228947235919064</v>
       </c>
       <c r="N55">
         <f t="shared" si="11"/>
@@ -8871,38 +8871,38 @@
         <v>1.1555807172902738E-5</v>
       </c>
       <c r="P55" s="9">
-        <f t="shared" si="7"/>
-        <v>2.7510596818740376E-24</v>
+        <f t="shared" si="9"/>
+        <v>1.9960568020853559E-24</v>
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.5">
       <c r="D56">
-        <f t="shared" si="8"/>
-        <v>1.7567901234567899E-12</v>
+        <f t="shared" si="5"/>
+        <v>1.8240740740738661E-12</v>
       </c>
       <c r="E56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100000</v>
       </c>
       <c r="F56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
-        <v>1.67154150661921E-15</v>
+        <v>1.7355604891283218E-15</v>
       </c>
       <c r="H56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5667105345616344E-14</v>
       </c>
       <c r="I56">
         <f t="shared" si="10"/>
-        <v>2.2396862455155771E-17</v>
+        <v>2.2878622514094208E-17</v>
       </c>
       <c r="M56" s="3">
         <f t="shared" si="4"/>
-        <v>1.7953124203385457E-4</v>
+        <v>1.7377217467902704E-4</v>
       </c>
       <c r="N56">
         <f t="shared" si="11"/>
@@ -8913,38 +8913,38 @@
         <v>1.1555807172902738E-5</v>
       </c>
       <c r="P56" s="9">
-        <f t="shared" si="7"/>
-        <v>1.0610125346953998E-25</v>
+        <f t="shared" si="9"/>
+        <v>1.0593053696384092E-25</v>
       </c>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.5">
       <c r="D57">
-        <f t="shared" si="8"/>
-        <v>1.2370987654320988E-11</v>
+        <f t="shared" si="5"/>
+        <v>1.2438271604938063E-11</v>
       </c>
       <c r="E57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000000</v>
       </c>
       <c r="F57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40000</v>
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
-        <v>1.1770682829991425E-14</v>
+        <v>1.1834701812500535E-14</v>
       </c>
       <c r="H57">
-        <f t="shared" si="9"/>
-        <v>7.6586098091474418E-15</v>
+        <f t="shared" si="8"/>
+        <v>7.6586098091474434E-15</v>
       </c>
       <c r="I57">
         <f t="shared" si="10"/>
-        <v>1.1793217296554925E-16</v>
+        <v>1.1857114611502697E-16</v>
       </c>
       <c r="M57" s="3">
         <f t="shared" si="4"/>
-        <v>1.0038325792179296E-4</v>
+        <v>1.0037912272340942E-4</v>
       </c>
       <c r="N57">
         <f t="shared" ref="N57" si="13">(F57/E57)^2</f>
@@ -8955,8 +8955,8 @@
         <v>1.1555807172902738E-5</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="7"/>
-        <v>1.0373046362082631E-25</v>
+        <f t="shared" si="9"/>
+        <v>1.0373033833999324E-25</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.5">
@@ -8998,19 +8998,19 @@
       </c>
       <c r="N62" s="3">
         <f>G52</f>
-        <v>2.9366505738214445E-19</v>
+        <v>6.4312647566493747E-17</v>
       </c>
       <c r="O62" s="3">
         <f>I52</f>
-        <v>1.3409363672346441E-17</v>
+        <v>1.3424776986491396E-17</v>
       </c>
       <c r="V62" s="3">
         <f>N62*SQRT(W62+X62+Y62)</f>
-        <v>1.3409363760955784E-17</v>
+        <v>1.3429021229021984E-17</v>
       </c>
       <c r="W62">
         <f t="shared" ref="W62:W67" si="14">(O62/N62)^2</f>
-        <v>2085.0275181106585</v>
+        <v>4.357339334299451E-2</v>
       </c>
       <c r="X62">
         <f>(M62/L62)^2</f>
@@ -9031,19 +9031,19 @@
       </c>
       <c r="N63" s="3">
         <f t="shared" ref="N63:N66" si="16">G53</f>
-        <v>3.230315631203673E-18</v>
+        <v>6.7249298140315265E-17</v>
       </c>
       <c r="O63" s="3">
         <f t="shared" ref="O63:O67" si="17">I53</f>
-        <v>1.2823842318169226E-17</v>
+        <v>1.2841422628252552E-17</v>
       </c>
       <c r="V63" s="3">
         <f t="shared" ref="V63:V67" si="18">N63*SQRT(W63+X63+Y63)</f>
-        <v>1.2823853529436343E-17</v>
+        <v>1.2846273988060349E-17</v>
       </c>
       <c r="W63">
         <f t="shared" si="14"/>
-        <v>15.759644650020713</v>
+        <v>3.6462863077815266E-2</v>
       </c>
       <c r="X63">
         <f t="shared" ref="X63:X67" si="19">(M63/L63)^2</f>
@@ -9064,19 +9064,19 @@
       </c>
       <c r="N64" s="3">
         <f t="shared" si="16"/>
-        <v>1.6738908270782677E-17</v>
+        <v>8.0757890779894271E-17</v>
       </c>
       <c r="O64" s="3">
         <f t="shared" si="17"/>
-        <v>1.0680041190710575E-17</v>
+        <v>1.0709222400463374E-17</v>
       </c>
       <c r="V64" s="3">
         <f t="shared" si="18"/>
-        <v>1.0680402648113162E-17</v>
+        <v>1.0717609756995996E-17</v>
       </c>
       <c r="W64">
         <f t="shared" si="14"/>
-        <v>0.4070910894388356</v>
+        <v>1.7585144457431371E-2</v>
       </c>
       <c r="X64">
         <f t="shared" si="19"/>
@@ -9097,19 +9097,19 @@
       </c>
       <c r="N65" s="3">
         <f t="shared" si="16"/>
-        <v>1.6885740799473751E-16</v>
+        <v>2.3287639050384912E-16</v>
       </c>
       <c r="O65" s="3">
         <f t="shared" si="17"/>
-        <v>1.8516851733711899E-16</v>
+        <v>1.8517546185099387E-16</v>
       </c>
       <c r="V65" s="3">
         <f t="shared" si="18"/>
-        <v>1.8517063888941329E-16</v>
+        <v>1.8517949687288608E-16</v>
       </c>
       <c r="W65">
         <f t="shared" si="14"/>
-        <v>1.2025248544512059</v>
+        <v>0.63228947235919064</v>
       </c>
       <c r="X65">
         <f t="shared" si="19"/>
@@ -9130,19 +9130,19 @@
       </c>
       <c r="N66" s="3">
         <f t="shared" si="16"/>
-        <v>1.67154150661921E-15</v>
+        <v>1.7355604891283218E-15</v>
       </c>
       <c r="O66" s="3">
         <f t="shared" si="17"/>
-        <v>2.2396862455155771E-17</v>
+        <v>2.2878622514094208E-17</v>
       </c>
       <c r="V66" s="3">
         <f t="shared" si="18"/>
-        <v>2.4054350514044979E-17</v>
+        <v>2.4625883733591401E-17</v>
       </c>
       <c r="W66">
         <f t="shared" si="14"/>
-        <v>1.7953124203385457E-4</v>
+        <v>1.7377217467902704E-4</v>
       </c>
       <c r="X66">
         <f t="shared" si="19"/>
@@ -9163,19 +9163,19 @@
       </c>
       <c r="N67" s="3">
         <f>G57</f>
-        <v>1.1770682829991425E-14</v>
+        <v>1.1834701812500535E-14</v>
       </c>
       <c r="O67" s="3">
         <f t="shared" si="17"/>
-        <v>1.1793217296554925E-16</v>
+        <v>1.1857114611502697E-16</v>
       </c>
       <c r="V67" s="3">
         <f t="shared" si="18"/>
-        <v>1.3313837252932233E-16</v>
+        <v>1.3386032887018548E-16</v>
       </c>
       <c r="W67">
         <f t="shared" si="14"/>
-        <v>1.0038325792179296E-4</v>
+        <v>1.0037912272340942E-4</v>
       </c>
       <c r="X67">
         <f t="shared" si="19"/>
@@ -11299,7 +11299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
